--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2682.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2682.xlsx
@@ -354,7 +354,7 @@
         <v>2.420473635958982</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.330928524622262</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2682.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2682.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161596863939124</v>
+        <v>0.869288444519043</v>
       </c>
       <c r="B1">
-        <v>2.420473635958982</v>
+        <v>1.187809586524963</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.001517534255981</v>
       </c>
       <c r="D1">
-        <v>2.330928524622262</v>
+        <v>4.656040191650391</v>
       </c>
       <c r="E1">
-        <v>1.214559483162329</v>
+        <v>2.207576274871826</v>
       </c>
     </row>
   </sheetData>
